--- a/biology/Botanique/Goyavier_du_Chili/Goyavier_du_Chili.xlsx
+++ b/biology/Botanique/Goyavier_du_Chili/Goyavier_du_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ugni molinae
 Le goyavier du Chili (Ugni molinae) est un arbuste fruitier (1,80 m) de la famille des myrtacées, endémique et natif du Chili. Son nom vernaculaire espagnol est murta ou murtilla. Le fruit au goût de fraise des bois est utilisé pour la production de l'arôme de fraise.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbuste mesure jusqu'à 2 m de hauteur.
-Son feuillage est persistant. Ses feuilles peuvent être utilisées pour faire un substitut de thé[1] et ses graines pour faire un substitut de café[2].
+Son feuillage est persistant. Ses feuilles peuvent être utilisées pour faire un substitut de thé et ses graines pour faire un substitut de café.
 Les fleurs hermaphrodites de couleur blanc rosé ont une forme de cloche.
 Les goyaves du Chili, aussi appelées ugnis ou murtillas, sont des petites baies de 5 mm à 15 mm de diamètre, de couleur rouge, et au goût très prononcé de fraise. Étonnement, le fruit est de couleur rouge clair avec des traces blanches par endroits lorsqu'il est mûr et rouge foncé lorsqu'il est encore immature.
 Les graines ont un diamètre de 1,5 à 2 mm.
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est rustique jusque -5 °C (Zone USDA 8). Elle préfère les sols acides.
 Le goyavier du Chili est sensible au thrips.
@@ -582,7 +598,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Chili, on utilise le fruit pour faire une liqueur, la Murtado.
 L'abondance des fleurs et leur richesse en nectar les rendent attrayantes pour les abeilles, leurs principaux pollinisateurs, qui produisent ainsi un miel à l'arôme distinctif.
